--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H2">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N2">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q2">
-        <v>18.1969639632834</v>
+        <v>26.51450268660267</v>
       </c>
       <c r="R2">
-        <v>18.1969639632834</v>
+        <v>238.630524179424</v>
       </c>
       <c r="S2">
-        <v>0.04491389125307133</v>
+        <v>0.04697404606720677</v>
       </c>
       <c r="T2">
-        <v>0.04491389125307133</v>
+        <v>0.04697404606720677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H3">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I3">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J3">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q3">
-        <v>75.92369212830693</v>
+        <v>103.0247516781716</v>
       </c>
       <c r="R3">
-        <v>75.92369212830693</v>
+        <v>927.222765103544</v>
       </c>
       <c r="S3">
-        <v>0.1873954610594915</v>
+        <v>0.1825223534680242</v>
       </c>
       <c r="T3">
-        <v>0.1873954610594915</v>
+        <v>0.1825223534680241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H4">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I4">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J4">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N4">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q4">
-        <v>33.88856107396703</v>
+        <v>43.48264880068489</v>
       </c>
       <c r="R4">
-        <v>33.88856107396703</v>
+        <v>391.343839206164</v>
       </c>
       <c r="S4">
-        <v>0.08364401610457355</v>
+        <v>0.07703542367097138</v>
       </c>
       <c r="T4">
-        <v>0.08364401610457355</v>
+        <v>0.07703542367097137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H5">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I5">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J5">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N5">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q5">
-        <v>61.2506438604151</v>
+        <v>97.27062889239799</v>
       </c>
       <c r="R5">
-        <v>61.2506438604151</v>
+        <v>875.435660031582</v>
       </c>
       <c r="S5">
-        <v>0.1511793265666776</v>
+        <v>0.1723281426992939</v>
       </c>
       <c r="T5">
-        <v>0.1511793265666776</v>
+        <v>0.1723281426992939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H6">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I6">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J6">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N6">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q6">
-        <v>134.581625768828</v>
+        <v>180.8669415690049</v>
       </c>
       <c r="R6">
-        <v>134.581625768828</v>
+        <v>1627.802474121044</v>
       </c>
       <c r="S6">
-        <v>0.3321754396304261</v>
+        <v>0.3204303752447955</v>
       </c>
       <c r="T6">
-        <v>0.3321754396304261</v>
+        <v>0.3204303752447955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H7">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I7">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J7">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N7">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q7">
-        <v>33.03290848948025</v>
+        <v>47.35576330378112</v>
       </c>
       <c r="R7">
-        <v>33.03290848948025</v>
+        <v>426.20186973403</v>
       </c>
       <c r="S7">
-        <v>0.08153208758684985</v>
+        <v>0.08389717255015883</v>
       </c>
       <c r="T7">
-        <v>0.08153208758684985</v>
+        <v>0.08389717255015881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H8">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J8">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N8">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q8">
-        <v>1.513585174292191</v>
+        <v>2.017156263152001</v>
       </c>
       <c r="R8">
-        <v>1.513585174292191</v>
+        <v>18.154406368368</v>
       </c>
       <c r="S8">
-        <v>0.003735842971255423</v>
+        <v>0.003573666545815861</v>
       </c>
       <c r="T8">
-        <v>0.003735842971255423</v>
+        <v>0.003573666545815861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H9">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J9">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q9">
-        <v>6.315172960434597</v>
+        <v>7.837862379078669</v>
       </c>
       <c r="R9">
-        <v>6.315172960434597</v>
+        <v>70.54076141170802</v>
       </c>
       <c r="S9">
-        <v>0.01558716015273776</v>
+        <v>0.01388583873569318</v>
       </c>
       <c r="T9">
-        <v>0.01558716015273776</v>
+        <v>0.01388583873569318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H10">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J10">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N10">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q10">
-        <v>2.818779205319522</v>
+        <v>3.308049877588668</v>
       </c>
       <c r="R10">
-        <v>2.818779205319522</v>
+        <v>29.77244889829801</v>
       </c>
       <c r="S10">
-        <v>0.00695733326447145</v>
+        <v>0.005860660076456385</v>
       </c>
       <c r="T10">
-        <v>0.00695733326447145</v>
+        <v>0.005860660076456383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H11">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J11">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N11">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q11">
-        <v>5.094699679025323</v>
+        <v>7.400103279711002</v>
       </c>
       <c r="R11">
-        <v>5.094699679025323</v>
+        <v>66.60092951739901</v>
       </c>
       <c r="S11">
-        <v>0.01257477828787835</v>
+        <v>0.01311028897927908</v>
       </c>
       <c r="T11">
-        <v>0.01257477828787835</v>
+        <v>0.01311028897927908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H12">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I12">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J12">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N12">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q12">
-        <v>11.19421645868243</v>
+        <v>13.75989918782867</v>
       </c>
       <c r="R12">
-        <v>11.19421645868243</v>
+        <v>123.839092690458</v>
       </c>
       <c r="S12">
-        <v>0.02762965413917788</v>
+        <v>0.02437753202347555</v>
       </c>
       <c r="T12">
-        <v>0.02762965413917788</v>
+        <v>0.02437753202347554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.27957900527732</v>
+        <v>1.394651</v>
       </c>
       <c r="H13">
-        <v>1.27957900527732</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I13">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662021</v>
       </c>
       <c r="J13">
-        <v>0.07326643630959009</v>
+        <v>0.06719067092662019</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N13">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q13">
-        <v>2.74760782371778</v>
+        <v>3.602706627148334</v>
       </c>
       <c r="R13">
-        <v>2.74760782371778</v>
+        <v>32.42435964433501</v>
       </c>
       <c r="S13">
-        <v>0.006781667494069237</v>
+        <v>0.006382684565900153</v>
       </c>
       <c r="T13">
-        <v>0.006781667494069237</v>
+        <v>0.006382684565900151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H14">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I14">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J14">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N14">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q14">
-        <v>0.9480941721178143</v>
+        <v>0.05412056337066666</v>
       </c>
       <c r="R14">
-        <v>0.9480941721178143</v>
+        <v>0.487085070336</v>
       </c>
       <c r="S14">
-        <v>0.002340093579901047</v>
+        <v>9.588193552057234E-05</v>
       </c>
       <c r="T14">
-        <v>0.002340093579901047</v>
+        <v>9.588193552057234E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H15">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I15">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J15">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q15">
-        <v>3.955759333136945</v>
+        <v>0.2102908611128889</v>
       </c>
       <c r="R15">
-        <v>3.955759333136945</v>
+        <v>1.892617750016</v>
       </c>
       <c r="S15">
-        <v>0.009763636663254499</v>
+        <v>0.0003725588488001594</v>
       </c>
       <c r="T15">
-        <v>0.009763636663254499</v>
+        <v>0.0003725588488001593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H16">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I16">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J16">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N16">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q16">
-        <v>1.765654277302279</v>
+        <v>0.08875540596622222</v>
       </c>
       <c r="R16">
-        <v>1.765654277302279</v>
+        <v>0.798798653696</v>
       </c>
       <c r="S16">
-        <v>0.004358001937097078</v>
+        <v>0.0001572422676695192</v>
       </c>
       <c r="T16">
-        <v>0.004358001937097078</v>
+        <v>0.0001572422676695191</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H17">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I17">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J17">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N17">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q17">
-        <v>3.191267433385911</v>
+        <v>0.198545727872</v>
       </c>
       <c r="R17">
-        <v>3.191267433385911</v>
+        <v>1.786911550848</v>
       </c>
       <c r="S17">
-        <v>0.007876711672989457</v>
+        <v>0.0003517507485523742</v>
       </c>
       <c r="T17">
-        <v>0.007876711672989457</v>
+        <v>0.0003517507485523742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.801515116739338</v>
+        <v>0.03741866666666666</v>
       </c>
       <c r="H18">
-        <v>0.801515116739338</v>
+        <v>0.112256</v>
       </c>
       <c r="I18">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="J18">
-        <v>0.04589334148931994</v>
+        <v>0.001802734389114475</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N18">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q18">
-        <v>7.011941954878911</v>
+        <v>0.3691798744462222</v>
       </c>
       <c r="R18">
-        <v>7.011941954878911</v>
+        <v>3.322618870016</v>
       </c>
       <c r="S18">
-        <v>0.01730693092923256</v>
+        <v>0.0006540523363496841</v>
       </c>
       <c r="T18">
-        <v>0.01730693092923256</v>
+        <v>0.0006540523363496841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.112256</v>
+      </c>
+      <c r="I19">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J19">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N19">
+        <v>7.749695</v>
+      </c>
+      <c r="O19">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P19">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q19">
+        <v>0.09666108465777777</v>
+      </c>
+      <c r="R19">
+        <v>0.86994976192</v>
+      </c>
+      <c r="S19">
+        <v>0.0001712482522221658</v>
+      </c>
+      <c r="T19">
+        <v>0.0001712482522221658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.977687</v>
+      </c>
+      <c r="I20">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J20">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.446352</v>
+      </c>
+      <c r="N20">
+        <v>4.339056</v>
+      </c>
+      <c r="O20">
+        <v>0.05318694539780245</v>
+      </c>
+      <c r="P20">
+        <v>0.05318694539780246</v>
+      </c>
+      <c r="Q20">
+        <v>1.435594515941333</v>
+      </c>
+      <c r="R20">
+        <v>12.920350643472</v>
+      </c>
+      <c r="S20">
+        <v>0.002543350849259251</v>
+      </c>
+      <c r="T20">
+        <v>0.002543350849259251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.977687</v>
+      </c>
+      <c r="I21">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J21">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N21">
+        <v>16.859836</v>
+      </c>
+      <c r="O21">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="P21">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="Q21">
+        <v>5.578146053259111</v>
+      </c>
+      <c r="R21">
+        <v>50.203314479332</v>
+      </c>
+      <c r="S21">
+        <v>0.009882444063633127</v>
+      </c>
+      <c r="T21">
+        <v>0.009882444063633125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.977687</v>
+      </c>
+      <c r="I22">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J22">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.371955333333334</v>
+      </c>
+      <c r="N22">
+        <v>7.115866</v>
+      </c>
+      <c r="O22">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="P22">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="Q22">
+        <v>2.354313520215778</v>
+      </c>
+      <c r="R22">
+        <v>21.188821681942</v>
+      </c>
+      <c r="S22">
+        <v>0.004170986462104898</v>
+      </c>
+      <c r="T22">
+        <v>0.004170986462104898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H23">
+        <v>2.977687</v>
+      </c>
+      <c r="I23">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J23">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.306061</v>
+      </c>
+      <c r="N23">
+        <v>15.918183</v>
+      </c>
+      <c r="O23">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="P23">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="Q23">
+        <v>5.266596286969</v>
+      </c>
+      <c r="R23">
+        <v>47.39936658272099</v>
+      </c>
+      <c r="S23">
+        <v>0.009330491298502296</v>
+      </c>
+      <c r="T23">
+        <v>0.009330491298502294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="H19">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="I19">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="J19">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.14727485554696</v>
-      </c>
-      <c r="N19">
-        <v>2.14727485554696</v>
-      </c>
-      <c r="O19">
-        <v>0.09256172178776438</v>
-      </c>
-      <c r="P19">
-        <v>0.09256172178776438</v>
-      </c>
-      <c r="Q19">
-        <v>1.721073256515167</v>
-      </c>
-      <c r="R19">
-        <v>1.721073256515167</v>
-      </c>
-      <c r="S19">
-        <v>0.004247966706845296</v>
-      </c>
-      <c r="T19">
-        <v>0.004247966706845296</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H24">
+        <v>2.977687</v>
+      </c>
+      <c r="I24">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J24">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.866195333333334</v>
+      </c>
+      <c r="N24">
+        <v>29.598586</v>
+      </c>
+      <c r="O24">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="P24">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="Q24">
+        <v>9.792813861175778</v>
+      </c>
+      <c r="R24">
+        <v>88.135324750582</v>
+      </c>
+      <c r="S24">
+        <v>0.01734930105533853</v>
+      </c>
+      <c r="T24">
+        <v>0.01734930105533853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.977687</v>
+      </c>
+      <c r="I25">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J25">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.749695</v>
+      </c>
+      <c r="O25">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P25">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q25">
+        <v>2.564018450607223</v>
+      </c>
+      <c r="R25">
+        <v>23.076166055465</v>
+      </c>
+      <c r="S25">
+        <v>0.004542507254976699</v>
+      </c>
+      <c r="T25">
+        <v>0.004542507254976698</v>
       </c>
     </row>
   </sheetData>
